--- a/thresholds/IGCSE/business-9-1/business-9-1-thresholds.xlsx
+++ b/thresholds/IGCSE/business-9-1/business-9-1-thresholds.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L11"/>
+  <dimension ref="A1:M11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -494,6 +494,11 @@
           <t>date</t>
         </is>
       </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>subject</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -536,6 +541,11 @@
           <t>June 2023</t>
         </is>
       </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>business-9-1</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -578,6 +588,11 @@
           <t>June 2023</t>
         </is>
       </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>business-9-1</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -620,6 +635,11 @@
           <t>June 2024</t>
         </is>
       </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>business-9-1</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -662,6 +682,11 @@
           <t>June 2024</t>
         </is>
       </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>business-9-1</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -704,6 +729,11 @@
           <t>June 2025</t>
         </is>
       </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>business-9-1</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -746,6 +776,11 @@
           <t>June 2025</t>
         </is>
       </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>business-9-1</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -788,6 +823,11 @@
           <t>November 2024</t>
         </is>
       </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>business-9-1</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -830,6 +870,11 @@
           <t>June 2022</t>
         </is>
       </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>business-9-1</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -872,6 +917,11 @@
           <t>June 2022</t>
         </is>
       </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>business-9-1</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -914,6 +964,7 @@
           <t>November 2022</t>
         </is>
       </c>
+      <c r="M11" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/thresholds/IGCSE/business-9-1/business-9-1-thresholds.xlsx
+++ b/thresholds/IGCSE/business-9-1/business-9-1-thresholds.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M11"/>
+  <dimension ref="A1:L11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -494,11 +494,6 @@
           <t>date</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>subject</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -533,17 +528,14 @@
       <c r="J2" t="n">
         <v>28</v>
       </c>
-      <c r="K2" t="n">
-        <v>18</v>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
           <t>June 2023</t>
-        </is>
-      </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>business-9-1</t>
         </is>
       </c>
     </row>
@@ -580,17 +572,14 @@
       <c r="J3" t="n">
         <v>27</v>
       </c>
-      <c r="K3" t="n">
-        <v>16</v>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
           <t>June 2023</t>
-        </is>
-      </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>business-9-1</t>
         </is>
       </c>
     </row>
@@ -627,17 +616,14 @@
       <c r="J4" t="n">
         <v>26</v>
       </c>
-      <c r="K4" t="n">
-        <v>18</v>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
           <t>June 2024</t>
-        </is>
-      </c>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>business-9-1</t>
         </is>
       </c>
     </row>
@@ -674,17 +660,14 @@
       <c r="J5" t="n">
         <v>29</v>
       </c>
-      <c r="K5" t="n">
-        <v>18</v>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
           <t>June 2024</t>
-        </is>
-      </c>
-      <c r="M5" t="inlineStr">
-        <is>
-          <t>business-9-1</t>
         </is>
       </c>
     </row>
@@ -721,17 +704,14 @@
       <c r="J6" t="n">
         <v>28</v>
       </c>
-      <c r="K6" t="n">
-        <v>18</v>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
           <t>June 2025</t>
-        </is>
-      </c>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t>business-9-1</t>
         </is>
       </c>
     </row>
@@ -768,17 +748,14 @@
       <c r="J7" t="n">
         <v>30</v>
       </c>
-      <c r="K7" t="n">
-        <v>18</v>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
           <t>June 2025</t>
-        </is>
-      </c>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t>business-9-1</t>
         </is>
       </c>
     </row>
@@ -815,17 +792,14 @@
       <c r="J8" t="n">
         <v>26</v>
       </c>
-      <c r="K8" t="n">
-        <v>16</v>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
           <t>November 2024</t>
-        </is>
-      </c>
-      <c r="M8" t="inlineStr">
-        <is>
-          <t>business-9-1</t>
         </is>
       </c>
     </row>
@@ -862,17 +836,14 @@
       <c r="J9" t="n">
         <v>25</v>
       </c>
-      <c r="K9" t="n">
-        <v>17</v>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
           <t>June 2022</t>
-        </is>
-      </c>
-      <c r="M9" t="inlineStr">
-        <is>
-          <t>business-9-1</t>
         </is>
       </c>
     </row>
@@ -909,17 +880,14 @@
       <c r="J10" t="n">
         <v>25</v>
       </c>
-      <c r="K10" t="n">
-        <v>17</v>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
           <t>June 2022</t>
-        </is>
-      </c>
-      <c r="M10" t="inlineStr">
-        <is>
-          <t>business-9-1</t>
         </is>
       </c>
     </row>
@@ -956,15 +924,16 @@
       <c r="J11" t="n">
         <v>25</v>
       </c>
-      <c r="K11" t="n">
-        <v>16</v>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
           <t>November 2022</t>
         </is>
       </c>
-      <c r="M11" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
